--- a/db/load/cdisc/ct/changes/2021-09-24/CDASH Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/CDASH Terminology Changes 2021-09-24.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF24BC2-FACF-7443-87DF-E3EF947794B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B2EC2-B792-5343-BACA-D75F6DF2E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35600" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDASH Terminology Changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDASH Terminology Changes'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDASH Terminology Changes'!$A$1:$Q$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
   <si>
     <t>Release Date</t>
   </si>
@@ -224,14 +215,32 @@
   </si>
   <si>
     <t>Exposure Dose Form</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +275,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -303,6 +318,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -310,7 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -321,7 +349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,12 +361,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 23 2" xfId="2"/>
-    <cellStyle name="Normal 28" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 23 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 28" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,12 +646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -633,7 +664,7 @@
     <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,8 +698,26 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44463</v>
       </c>
@@ -700,8 +749,14 @@
         <v>51</v>
       </c>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44463</v>
       </c>
@@ -733,8 +788,14 @@
         <v>53</v>
       </c>
       <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44463</v>
       </c>
@@ -766,8 +827,14 @@
         <v>41</v>
       </c>
       <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44463</v>
       </c>
@@ -799,8 +866,14 @@
         <v>43</v>
       </c>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44463</v>
       </c>
@@ -832,8 +905,14 @@
         <v>45</v>
       </c>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44463</v>
       </c>
@@ -865,8 +944,14 @@
         <v>47</v>
       </c>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44463</v>
       </c>
@@ -898,8 +983,14 @@
         <v>49</v>
       </c>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44463</v>
       </c>
@@ -931,8 +1022,14 @@
         <v>17</v>
       </c>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44463</v>
       </c>
@@ -964,8 +1061,14 @@
         <v>22</v>
       </c>
       <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44463</v>
       </c>
@@ -997,8 +1100,14 @@
         <v>24</v>
       </c>
       <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44463</v>
       </c>
@@ -1030,8 +1139,14 @@
         <v>26</v>
       </c>
       <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44463</v>
       </c>
@@ -1063,8 +1178,14 @@
         <v>28</v>
       </c>
       <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44463</v>
       </c>
@@ -1096,8 +1217,14 @@
         <v>30</v>
       </c>
       <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44463</v>
       </c>
@@ -1129,8 +1256,14 @@
         <v>33</v>
       </c>
       <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44463</v>
       </c>
@@ -1162,8 +1295,14 @@
         <v>35</v>
       </c>
       <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44463</v>
       </c>
@@ -1195,8 +1334,14 @@
         <v>37</v>
       </c>
       <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44463</v>
       </c>
@@ -1228,8 +1373,14 @@
         <v>39</v>
       </c>
       <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44463</v>
       </c>
@@ -1261,8 +1412,14 @@
         <v>61</v>
       </c>
       <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44463</v>
       </c>
@@ -1294,13 +1451,15 @@
         <v>61</v>
       </c>
       <c r="K20" s="7"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
-      <sortCondition ref="C1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Q20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
